--- a/VocaProject/voca.xlsx
+++ b/VocaProject/voca.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26024"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96700AEC-4AC5-4E65-AFAE-527CE2C4091F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5759605E-10D1-46F7-BD53-9C75EB81290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="1977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="2058">
   <si>
     <t>#</t>
   </si>
@@ -3465,7 +3465,7 @@
     <t>pale</t>
   </si>
   <si>
-    <t>(of a person’s face) having less color than usual, or (of a color or light) not bright or strong</t>
+    <t>(of a person's face) having less color than usual, or (of a color or light) not bright or strong</t>
   </si>
   <si>
     <t>wan, pallid, ashen, white, pasty</t>
@@ -5568,7 +5568,7 @@
     <t>payroll</t>
   </si>
   <si>
-    <t>a list of a company’s employees and the amount each earns, or the total earnings a business gives to its employees</t>
+    <t>a list of a company's employees and the amount each earns, or the total earnings a business gives to its employees</t>
   </si>
   <si>
     <t>salary, wage, pay, remuneration, income</t>
@@ -5959,6 +5959,249 @@
   </si>
   <si>
     <t>daytime</t>
+  </si>
+  <si>
+    <t>hibernate</t>
+  </si>
+  <si>
+    <t>(of some animals) to spend the winter sleeping</t>
+  </si>
+  <si>
+    <t>overwinter, sleep</t>
+  </si>
+  <si>
+    <t>jellyfish</t>
+  </si>
+  <si>
+    <t>a sea creature with a soft, oval, almost transparent body</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>pygmy</t>
+  </si>
+  <si>
+    <t>A pygmy animal or bird is one of a type that is smaller than animals or birds of that type usually are; someone who is not important or who has little skill</t>
+  </si>
+  <si>
+    <t>dwarf, little man, gnome</t>
+  </si>
+  <si>
+    <t>shrew</t>
+  </si>
+  <si>
+    <t>an animal like a small mouse but with a longer pointed nose and small eyes; an unpleasant woman who is easily annoyed and who argues a lot</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>bog</t>
+  </si>
+  <si>
+    <t>soft, wet ground, or an area of this; a toilet</t>
+  </si>
+  <si>
+    <t>swamp, marsh, mire, morass, fen, marshland</t>
+  </si>
+  <si>
+    <t>prey</t>
+  </si>
+  <si>
+    <t>an animal that is hunted and killed for food by another animal</t>
+  </si>
+  <si>
+    <t>target, victim</t>
+  </si>
+  <si>
+    <t>demise</t>
+  </si>
+  <si>
+    <t>the death of a person; the end of the operation or existence of something</t>
+  </si>
+  <si>
+    <t>death, end, decease, passing</t>
+  </si>
+  <si>
+    <t>brink</t>
+  </si>
+  <si>
+    <t>the point where a new or different situation is about to begin; the edge of a cliff or other high area</t>
+  </si>
+  <si>
+    <t>edge, verge, border, threshold</t>
+  </si>
+  <si>
+    <t>rival</t>
+  </si>
+  <si>
+    <t>a person, group, etc. competing with others for the same thing or in the same area; to be as good, clever, beautiful, etc. as someone or something else</t>
+  </si>
+  <si>
+    <t>competitor, contender, adversary, opponent</t>
+  </si>
+  <si>
+    <t>errand</t>
+  </si>
+  <si>
+    <t>a short journey either to take a message or to take or collect something</t>
+  </si>
+  <si>
+    <t>mission, task, job, message, assignment, duty</t>
+  </si>
+  <si>
+    <t>combustible</t>
+  </si>
+  <si>
+    <t>able to burn easily</t>
+  </si>
+  <si>
+    <t>inflammable, flammable, explosive, ignitable</t>
+  </si>
+  <si>
+    <t>apron</t>
+  </si>
+  <si>
+    <t>a piece of clothing that you wear over the front of other clothes to keep the clothes clean while you are doing something dirty, such as cooking or cleaning</t>
+  </si>
+  <si>
+    <t>pinny, pinafore</t>
+  </si>
+  <si>
+    <t>foe</t>
+  </si>
+  <si>
+    <t>an enemy, or a competitor</t>
+  </si>
+  <si>
+    <t>opponent, enemy, adversary, rival, antagonist</t>
+  </si>
+  <si>
+    <t>cane</t>
+  </si>
+  <si>
+    <t>a long stick used especially by old, ill, or blind people to help them walk</t>
+  </si>
+  <si>
+    <t>stick</t>
+  </si>
+  <si>
+    <t>salvation</t>
+  </si>
+  <si>
+    <t>(a way of) being saved from danger, loss, or harm</t>
+  </si>
+  <si>
+    <t>saving, redemption, rescue, salvage, relief</t>
+  </si>
+  <si>
+    <t>racketeer</t>
+  </si>
+  <si>
+    <t>someone who makes money from a dishonest or illegal business activity</t>
+  </si>
+  <si>
+    <t>extortionist, gangster</t>
+  </si>
+  <si>
+    <t>bonfire</t>
+  </si>
+  <si>
+    <t>a large fire that is made outside to burn unwanted things, or for pleasure</t>
+  </si>
+  <si>
+    <t>balefire, fire</t>
+  </si>
+  <si>
+    <t>refugee</t>
+  </si>
+  <si>
+    <t>a person who has escaped from their own country for political, religious, or economic reasons or because of a war</t>
+  </si>
+  <si>
+    <t>asylum seeker, runaway, fugitive</t>
+  </si>
+  <si>
+    <t>preposterous</t>
+  </si>
+  <si>
+    <t>very silly or stupid; completely unreasonable and ridiculous; not to be believed</t>
+  </si>
+  <si>
+    <t>ridiculous, absurd, ludicrous, insane, nonsensical</t>
+  </si>
+  <si>
+    <t>gamble</t>
+  </si>
+  <si>
+    <t>to risk money, for example in a game or on a horse race; to do something that involves risk and could fail but that you hope will succeed or make money</t>
+  </si>
+  <si>
+    <t>stake, bet, risk, wager, venture, chance</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>a period of time when the light from an object in the sky cannot be seen because another object has come between you and it</t>
+  </si>
+  <si>
+    <t>obscuring, occultation, shading</t>
+  </si>
+  <si>
+    <t>penetrate</t>
+  </si>
+  <si>
+    <t>to move into or through something; to study or investigate something in order to understand it</t>
+  </si>
+  <si>
+    <t>enter, permeate, bore, pierce</t>
+  </si>
+  <si>
+    <t>imperceptible</t>
+  </si>
+  <si>
+    <t>unable to be noticed or felt because of being very slight</t>
+  </si>
+  <si>
+    <t>unnoticeable, indistinguishable, invisible, inaudible</t>
+  </si>
+  <si>
+    <t>protract</t>
+  </si>
+  <si>
+    <t>to make something last for a long time or last longer than necessary</t>
+  </si>
+  <si>
+    <t>extend, prolong, lengthen</t>
+  </si>
+  <si>
+    <t>lengthy</t>
+  </si>
+  <si>
+    <t>continuing for a long time; taking a long time</t>
+  </si>
+  <si>
+    <t>prolonged, long, extended, protracted, drawn-out</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>to break open or apart suddenly, or to make something do this</t>
+  </si>
+  <si>
+    <t>explode, erupt, break, blow up, tear, split</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>to reduce something, such as a speech or piece of writing, in length; to change or make something change from a gas to a liquid or solid state</t>
+  </si>
+  <si>
+    <t>compress, summarize, abbreviate, reduce</t>
   </si>
 </sst>
 </file>
@@ -6028,7 +6271,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6316,7 +6559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6329,8 +6572,8 @@
   </sheetPr>
   <dimension ref="A1:F701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="F656" sqref="F656"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="E585" sqref="E585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18339,162 +18582,507 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" spans="1:6">
       <c r="A657">
         <v>656</v>
       </c>
-    </row>
-    <row r="658" spans="1:1">
+      <c r="B657" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C657" t="s">
+        <v>12</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6">
       <c r="A658">
         <v>657</v>
       </c>
-    </row>
-    <row r="659" spans="1:1">
+      <c r="B658" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C658" t="s">
+        <v>7</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6">
       <c r="A659">
         <v>658</v>
       </c>
-    </row>
-    <row r="660" spans="1:1">
+      <c r="B659" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C659" t="s">
+        <v>49</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6">
       <c r="A660">
         <v>659</v>
       </c>
-    </row>
-    <row r="661" spans="1:1">
+      <c r="B660" t="s">
+        <v>1986</v>
+      </c>
+      <c r="C660" t="s">
+        <v>7</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F660" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6">
       <c r="A661">
         <v>660</v>
       </c>
-    </row>
-    <row r="662" spans="1:1">
+      <c r="B661" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C661" t="s">
+        <v>7</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6">
       <c r="A662">
         <v>661</v>
       </c>
-    </row>
-    <row r="663" spans="1:1">
+      <c r="B662" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C662" t="s">
+        <v>7</v>
+      </c>
+      <c r="D662" t="s">
+        <v>27</v>
+      </c>
+      <c r="E662" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F662" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6">
       <c r="A663">
         <v>662</v>
       </c>
-    </row>
-    <row r="664" spans="1:1">
+      <c r="B663" t="s">
+        <v>1995</v>
+      </c>
+      <c r="C663" t="s">
+        <v>7</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6">
       <c r="A664">
         <v>663</v>
       </c>
-    </row>
-    <row r="665" spans="1:1">
+      <c r="B664" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C664" t="s">
+        <v>7</v>
+      </c>
+      <c r="D664" t="s">
+        <v>27</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F664" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6">
       <c r="A665">
         <v>664</v>
       </c>
-    </row>
-    <row r="666" spans="1:1">
+      <c r="B665" t="s">
+        <v>2001</v>
+      </c>
+      <c r="C665" t="s">
+        <v>7</v>
+      </c>
+      <c r="D665" t="s">
+        <v>16</v>
+      </c>
+      <c r="E665" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F665" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6">
       <c r="A666">
         <v>665</v>
       </c>
-    </row>
-    <row r="667" spans="1:1">
+      <c r="B666" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C666" t="s">
+        <v>7</v>
+      </c>
+      <c r="E666" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F666" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6">
       <c r="A667">
         <v>666</v>
       </c>
-    </row>
-    <row r="668" spans="1:1">
+      <c r="B667" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C667" t="s">
+        <v>49</v>
+      </c>
+      <c r="E667" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F667" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6">
       <c r="A668">
         <v>667</v>
       </c>
-    </row>
-    <row r="669" spans="1:1">
+      <c r="B668" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C668" t="s">
+        <v>7</v>
+      </c>
+      <c r="E668" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F668" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6">
       <c r="A669">
         <v>668</v>
       </c>
-    </row>
-    <row r="670" spans="1:1">
+      <c r="B669" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C669" t="s">
+        <v>7</v>
+      </c>
+      <c r="E669" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F669" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6">
       <c r="A670">
         <v>669</v>
       </c>
-    </row>
-    <row r="671" spans="1:1">
+      <c r="B670" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C670" t="s">
+        <v>7</v>
+      </c>
+      <c r="E670" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F670" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6">
       <c r="A671">
         <v>670</v>
       </c>
-    </row>
-    <row r="672" spans="1:1">
+      <c r="B671" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C671" t="s">
+        <v>7</v>
+      </c>
+      <c r="E671" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F671" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6">
       <c r="A672">
         <v>671</v>
       </c>
-    </row>
-    <row r="673" spans="1:1">
+      <c r="B672" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C672" t="s">
+        <v>7</v>
+      </c>
+      <c r="E672" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F672" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6">
       <c r="A673">
         <v>672</v>
       </c>
-    </row>
-    <row r="674" spans="1:1">
+      <c r="B673" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C673" t="s">
+        <v>7</v>
+      </c>
+      <c r="E673" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6">
       <c r="A674">
         <v>673</v>
       </c>
-    </row>
-    <row r="675" spans="1:1">
+      <c r="B674" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C674" t="s">
+        <v>7</v>
+      </c>
+      <c r="D674" t="s">
+        <v>8</v>
+      </c>
+      <c r="E674" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6">
       <c r="A675">
         <v>674</v>
       </c>
-    </row>
-    <row r="676" spans="1:1">
+      <c r="B675" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C675" t="s">
+        <v>49</v>
+      </c>
+      <c r="E675" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6">
       <c r="A676">
         <v>675</v>
       </c>
-    </row>
-    <row r="677" spans="1:1">
+      <c r="B676" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C676" t="s">
+        <v>12</v>
+      </c>
+      <c r="D676" t="s">
+        <v>27</v>
+      </c>
+      <c r="E676" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F676" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6">
       <c r="A677">
         <v>676</v>
       </c>
-    </row>
-    <row r="678" spans="1:1">
+      <c r="B677" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C677" t="s">
+        <v>7</v>
+      </c>
+      <c r="E677" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F677" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6">
       <c r="A678">
         <v>677</v>
       </c>
-    </row>
-    <row r="679" spans="1:1">
+      <c r="B678" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C678" t="s">
+        <v>12</v>
+      </c>
+      <c r="E678" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F678" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6">
       <c r="A679">
         <v>678</v>
       </c>
-    </row>
-    <row r="680" spans="1:1">
+      <c r="B679" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C679" t="s">
+        <v>49</v>
+      </c>
+      <c r="E679" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F679" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6">
       <c r="A680">
         <v>679</v>
       </c>
-    </row>
-    <row r="681" spans="1:1">
+      <c r="B680" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C680" t="s">
+        <v>12</v>
+      </c>
+      <c r="E680" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F680" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6">
       <c r="A681">
         <v>680</v>
       </c>
-    </row>
-    <row r="682" spans="1:1">
+      <c r="B681" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C681" t="s">
+        <v>49</v>
+      </c>
+      <c r="D681" t="s">
+        <v>16</v>
+      </c>
+      <c r="E681" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F681" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6">
       <c r="A682">
         <v>681</v>
       </c>
-    </row>
-    <row r="683" spans="1:1">
+      <c r="B682" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C682" t="s">
+        <v>12</v>
+      </c>
+      <c r="D682" t="s">
+        <v>8</v>
+      </c>
+      <c r="E682" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F682" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6">
       <c r="A683">
         <v>682</v>
       </c>
-    </row>
-    <row r="684" spans="1:1">
+      <c r="B683" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C683" t="s">
+        <v>12</v>
+      </c>
+      <c r="E683" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F683" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6">
       <c r="A684">
         <v>683</v>
       </c>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" spans="1:6">
       <c r="A685">
         <v>684</v>
       </c>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" spans="1:6">
       <c r="A686">
         <v>685</v>
       </c>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" spans="1:6">
       <c r="A687">
         <v>686</v>
       </c>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" spans="1:6">
       <c r="A688">
         <v>687</v>
       </c>
